--- a/sound_change.xlsx
+++ b/sound_change.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="290">
   <si>
     <t>family</t>
   </si>
@@ -804,6 +804,96 @@
   </si>
   <si>
     <t>*ɣʷʲ</t>
+  </si>
+  <si>
+    <t>Common Slavic</t>
+  </si>
+  <si>
+    <t>Russian Standard</t>
+  </si>
+  <si>
+    <t>*k</t>
+  </si>
+  <si>
+    <t>*g</t>
+  </si>
+  <si>
+    <t>*x</t>
+  </si>
+  <si>
+    <t>ɕ</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Галинская 2009: 22</t>
+  </si>
+  <si>
+    <t>Галинская 2009: 23</t>
+  </si>
+  <si>
+    <t>_i, _e, _æ; palatalization 1</t>
+  </si>
+  <si>
+    <t>*kt</t>
+  </si>
+  <si>
+    <t>_j</t>
+  </si>
+  <si>
+    <t>Галинская 2009: 23-24</t>
+  </si>
+  <si>
+    <t>dzʲ</t>
+  </si>
+  <si>
+    <t>_æ, _i</t>
+  </si>
+  <si>
+    <t>Галинская 2009: 37</t>
+  </si>
+  <si>
+    <t>palatalization 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tsʲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sʲ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dzʲ </t>
+  </si>
+  <si>
+    <t>_frontV</t>
+  </si>
+  <si>
+    <t>frontV_a,o,u</t>
+  </si>
+  <si>
+    <t>Галинская 2009: 39</t>
+  </si>
+  <si>
+    <t>palatalization 3, i,ĭ,ẽ_a,o,u</t>
+  </si>
+  <si>
+    <t>Pskov</t>
+  </si>
+  <si>
+    <t>Smolensk</t>
+  </si>
+  <si>
+    <t>*sj</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>*zʲ</t>
+  </si>
+  <si>
+    <t>Галинская 2009: 39-40</t>
   </si>
 </sst>
 </file>
@@ -1164,17 +1254,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -5618,6 +5708,530 @@
         <v>252</v>
       </c>
     </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
